--- a/calculations/At_I/At_I_exptl_levels.xlsx
+++ b/calculations/At_I/At_I_exptl_levels.xlsx
@@ -1,43 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/irikura_nist_gov/Documents/Karl/atomic_SOC/calculations/At_I/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_496D22F7064AF40FE1029C7745245E3FB48F8CC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F2518B7-4ADE-4765-8D13-F5935BC945C2}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-25320" yWindow="1725" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Level (cm-1)</t>
+  </si>
+  <si>
+    <t>6p5</t>
+  </si>
+  <si>
+    <t>2P°</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>6p4(3P)7s</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>At II (6p4 3P2)</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>theory Quinet</t>
+  </si>
+  <si>
+    <t>6p4(3P)7p</t>
+  </si>
+  <si>
+    <t>4P°</t>
+  </si>
+  <si>
+    <t>4D°</t>
+  </si>
+  <si>
+    <t>2D°</t>
+  </si>
+  <si>
+    <t>7/2</t>
+  </si>
+  <si>
+    <t>2S°</t>
+  </si>
+  <si>
+    <t>6p4(3P)8p</t>
+  </si>
+  <si>
+    <t>6p4(3P)9p</t>
+  </si>
+  <si>
+    <t>6p4(3P)10p</t>
+  </si>
+  <si>
+    <t>my Rydberg interpolation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +149,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,118 +492,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Configuration</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Level (cm-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6p5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2P°</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6p4(3P)7s</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4P</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5/2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>23068</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>44549.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6p4(3P)7s</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4P</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>46233.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>At II (6p4 3P2)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Limit</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>46233.599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>55910</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>56051</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>57157.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>57267.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>57276.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>58805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>69624</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>69637</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>69794</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>69615.100000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>69824</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>70055.399999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>71464</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>71474</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>71376.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>71566</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>71573</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>71708.899999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>65780</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>65818</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>66182</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>66010</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>66235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>66758</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
         <v>75150.8</v>
       </c>
     </row>
